--- a/IMU-Calibration/IMU_Calibration_Data.xlsx
+++ b/IMU-Calibration/IMU_Calibration_Data.xlsx
@@ -204,8 +204,52 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -233,12 +277,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="67">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -250,6 +294,28 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -261,6 +327,28 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -617,7 +705,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -627,23 +715,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="4"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
@@ -678,31 +766,31 @@
       <c r="A3">
         <v>0</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>-0.12121212121212122</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>-5.7272727272727275</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>238.90909090909091</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>40</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>-527.37267999999995</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>-705.76678400000003</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>472.970977</v>
       </c>
     </row>
@@ -710,31 +798,31 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
         <v>-3.6666666666666665</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>-283.94871794871796</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>0</v>
       </c>
       <c r="I4" t="s">
         <v>16</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>547.04632500000002</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>503.16787699999998</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>-552.12322900000004</v>
       </c>
     </row>
@@ -742,19 +830,19 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>-46.75</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>-268.875</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>-25.875</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>179000</v>
       </c>
     </row>
@@ -762,13 +850,13 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>45.785714285714285</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>259.42857142857144</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>-22.785714285714285</v>
       </c>
       <c r="F6" t="s">
@@ -781,15 +869,15 @@
       <c r="I6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <f>(J4-J3)/2</f>
         <v>537.20950249999999</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <f t="shared" ref="K6:L6" si="0">(K4-K3)/2</f>
         <v>604.4673305</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <f t="shared" si="0"/>
         <v>-512.54710299999999</v>
       </c>
@@ -798,13 +886,13 @@
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>-263.8</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>41</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>-25.8</v>
       </c>
       <c r="F7" t="s">
@@ -817,15 +905,15 @@
       <c r="I7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <f>(J4+J3)/2</f>
         <v>9.8368225000000393</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <f t="shared" ref="K7:L7" si="1">(K4+K3)/2</f>
         <v>-101.29945350000003</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <f t="shared" si="1"/>
         <v>-39.576126000000016</v>
       </c>
@@ -834,34 +922,34 @@
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>262.5</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>-52.125</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>-21.75</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <f>(MAX(B3:B8)-MIN(B3:B8))/2</f>
         <v>263.14999999999998</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <f t="shared" ref="C10:D10" si="2">(MAX(C3:C8)-MIN(C3:C8))/2</f>
         <v>264.15178571428572</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <f t="shared" si="2"/>
         <v>261.42890442890445</v>
       </c>
@@ -870,15 +958,15 @@
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <f>(MAX(B3:B8)+MIN(B3:B8))/2</f>
         <v>-0.65000000000000568</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <f t="shared" ref="C11:D11" si="3">(MAX(C3:C8)+MIN(C3:C8))/2</f>
         <v>-4.7232142857142776</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <f t="shared" si="3"/>
         <v>-22.519813519813525</v>
       </c>

--- a/IMU-Calibration/IMU_Calibration_Data.xlsx
+++ b/IMU-Calibration/IMU_Calibration_Data.xlsx
@@ -204,8 +204,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="67">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -282,7 +288,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="67">
+  <cellStyles count="73">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -316,6 +322,9 @@
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -349,6 +358,9 @@
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -705,7 +717,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -791,7 +803,7 @@
         <v>-705.76678400000003</v>
       </c>
       <c r="L3" s="3">
-        <v>472.970977</v>
+        <v>-552.12322900000004</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -823,7 +835,7 @@
         <v>503.16787699999998</v>
       </c>
       <c r="L4" s="3">
-        <v>-552.12322900000004</v>
+        <v>472.970977</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -879,7 +891,7 @@
       </c>
       <c r="L6" s="3">
         <f t="shared" si="0"/>
-        <v>-512.54710299999999</v>
+        <v>512.54710299999999</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -914,7 +926,7 @@
         <v>-101.29945350000003</v>
       </c>
       <c r="L7" s="3">
-        <f t="shared" si="1"/>
+        <f>(L3+L4)/2</f>
         <v>-39.576126000000016</v>
       </c>
     </row>
